--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +991,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +1007,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1086,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1102,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1118,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1102,14 +1167,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -1118,14 +1205,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1134,13 +1243,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.82</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
+++ b/数据整理/stocks/其他/XOM-埃克森美孚石油.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3536</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3536</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9540</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1564</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>160416</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -819,22 +895,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.06</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4030</t>
+          <t>0.3448</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -967,7 +1043,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1007,22 +1083,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>97.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3448</t>
+          <t>0.4030</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1040,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,7 +1137,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1091,188 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.73</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9014</t>
+          <t>0.6871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3436</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014982</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3436</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3335</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1286,128 +1210,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.82</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.82</v>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>